--- a/biology/Zoologie/Corasoides_nebula/Corasoides_nebula.xlsx
+++ b/biology/Zoologie/Corasoides_nebula/Corasoides_nebula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corasoides nebula est une espèce d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corasoides nebula est une espèce d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Hela en Papouasie-Nouvelle-Guinée[1],[2]. Elle se rencontre vers Tari à 2 100 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Hela en Papouasie-Nouvelle-Guinée,. Elle se rencontre vers Tari à 2 100 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 2,4 mm de long sur 1,9 mm et l'abdomen 1,8 mm de long sur 1,2 mm et la carapace de la femelle paratype mesure 2,4 mm de long sur 1,8 mm et l'abdomen 2,4 mm de long sur 1,6 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 2,4 mm de long sur 1,9 mm et l'abdomen 1,8 mm de long sur 1,2 mm et la carapace de la femelle paratype mesure 2,4 mm de long sur 1,8 mm et l'abdomen 2,4 mm de long sur 1,6 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Humphrey, 2017 : A revision and cladistic analysis of the genus Corasoides Butler (Araneae: Desidae) with descriptions of nine new species. Records of the Australian Museum, vol. 69, no 1, p. 15-64 (texte intégral).</t>
         </is>
